--- a/scscl/游戏数据excel/xls/data1.xlsx
+++ b/scscl/游戏数据excel/xls/data1.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_body" sheetId="1" r:id="rId1"/>
     <sheet name="data_level" sheetId="2" r:id="rId2"/>
     <sheet name="data_skill" sheetId="3" r:id="rId3"/>
     <sheet name="data_xinfa" sheetId="4" r:id="rId4"/>
+    <sheet name="data_fame" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,22 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胎息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胚光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筑基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,111 +121,365 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对每次修炼附加0修为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉体凡胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否邪道功法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否正道功法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对修为的增益(目前只限具体数值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,15,20,25,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,15,20,25,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw_need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心法id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心法名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心法属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对修为增加是否倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对修为增加数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级所需修为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心法描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属性功法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mq_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称号id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称号对名气增长的附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称号描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初入江湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湖小虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后起之秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湖名宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湖高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zd_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xd_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪道称号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正道称号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降魔尊者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混世魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖世神皇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖世魔君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级所需名气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对修为的附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mq_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对名气的附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯木经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,500,5000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,500,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木属性功法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汐决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,500,5000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水属性功法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,100000,1000000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'50,500,5000'</t>
+  </si>
+  <si>
+    <t>火属性功法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土属性功法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚土不灭经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乘期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合体期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分神期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出窍期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元婴期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丹期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚光期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎息期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡人期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对每次修炼附加10修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对每次修炼附加0修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉体凡胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2个技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否邪道功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否正道功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对修为的增益(目前只限具体数值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,15,20,25,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,15,20,25,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bmul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw_need</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心法id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心法名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心法属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对修为增加是否倍数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对修为增加数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级所需修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心法描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属性功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚不坏神功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,5000,5000</t>
+  </si>
+  <si>
+    <t>对每次修炼附加10修为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第8重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,9 +523,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,17 +807,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="48.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -585,84 +825,220 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>200</v>
+      <c r="D3" t="s">
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>800</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>50000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>5</v>
+      </c>
+      <c r="B8">
+        <v>250</v>
+      </c>
+      <c r="C8">
+        <v>500000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>5000000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>50000000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11">
+        <v>500000000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>5000000000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+      <c r="C13">
+        <v>50000000000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -674,18 +1050,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -695,60 +1073,215 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>20000</v>
+      </c>
+      <c r="D6">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>200000</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>2000000</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>20000000</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>200000000</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <v>2000000000</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>20000000000</v>
+      </c>
+      <c r="D12">
+        <v>800</v>
+      </c>
+      <c r="E12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>50000</v>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>200000000000</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -780,39 +1313,39 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -820,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -829,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -840,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -849,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -863,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -875,7 +1408,7 @@
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="66" customWidth="1"/>
   </cols>
   <sheetData>
@@ -887,16 +1420,16 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -904,25 +1437,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -930,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -939,10 +1472,354 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="64.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>52</v>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>50000</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>100000</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8">
+        <v>180000</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>250000</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>400000</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>600000</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>900000</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>2000000</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/scscl/游戏数据excel/xls/data1.xlsx
+++ b/scscl/游戏数据excel/xls/data1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="data_body" sheetId="1" r:id="rId1"/>
@@ -12,506 +12,691 @@
     <sheet name="data_skill" sheetId="3" r:id="rId3"/>
     <sheet name="data_xinfa" sheetId="4" r:id="rId4"/>
     <sheet name="data_fame" sheetId="5" r:id="rId5"/>
+    <sheet name="data_tips" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addl</t>
+  </si>
+  <si>
+    <t>up_need</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
   <si>
     <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up_need</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体等级</t>
+  </si>
+  <si>
+    <t>对每次修炼的附加</t>
+  </si>
+  <si>
+    <t>升级所需</t>
+  </si>
+  <si>
+    <t>体质称呼</t>
+  </si>
+  <si>
+    <t>体质描述</t>
+  </si>
+  <si>
+    <t>肉体凡胎</t>
+  </si>
+  <si>
+    <t>对每次修炼附加0修为</t>
   </si>
   <si>
     <t>第1重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对每次修炼附加5修为</t>
   </si>
   <si>
     <t>第2重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对每次修炼附加10修为</t>
+  </si>
+  <si>
+    <t>第3重</t>
+  </si>
+  <si>
+    <t>第4重</t>
+  </si>
+  <si>
+    <t>第5重</t>
+  </si>
+  <si>
+    <t>第6重</t>
+  </si>
+  <si>
+    <t>第7重</t>
+  </si>
+  <si>
+    <t>第8重</t>
+  </si>
+  <si>
+    <t>第9重</t>
+  </si>
+  <si>
+    <t>第10重</t>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>need</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw_add</t>
+  </si>
+  <si>
+    <t>mq_add</t>
+  </si>
+  <si>
+    <t>唯一id</t>
+  </si>
+  <si>
+    <t>境界名称</t>
+  </si>
+  <si>
+    <t>升级需要经验</t>
+  </si>
+  <si>
+    <t>对修为的附加</t>
+  </si>
+  <si>
+    <t>对名气的附加</t>
+  </si>
+  <si>
+    <t>凡人期</t>
+  </si>
+  <si>
+    <t>胎息期</t>
+  </si>
+  <si>
+    <t>胚光期</t>
+  </si>
+  <si>
+    <t>筑基期</t>
+  </si>
+  <si>
+    <t>金丹期</t>
+  </si>
+  <si>
+    <t>元婴期</t>
+  </si>
+  <si>
+    <t>出窍期</t>
+  </si>
+  <si>
+    <t>分神期</t>
+  </si>
+  <si>
+    <t>合体期</t>
+  </si>
+  <si>
+    <t>渡劫期</t>
+  </si>
+  <si>
+    <t>大乘期</t>
   </si>
   <si>
     <t>bzd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bxd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能id</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>是否正道功法</t>
+  </si>
+  <si>
+    <t>是否邪道功法</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>对修为的增益(目前只限具体数值)</t>
+  </si>
+  <si>
+    <t>第2个技能</t>
   </si>
   <si>
     <t>第一个技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>境界名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级需要经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对每次修炼的附加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级所需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质称呼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对每次修炼附加5修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对每次修炼附加0修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉体凡胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2个技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否邪道功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否正道功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对修为的增益(目前只限具体数值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5,10,15,20,25,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,15,20,25,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bmul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xw_need</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心法id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心法名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心法属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对修为增加是否倍数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对修为增加数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>升级所需修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心法描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚经</t>
+  </si>
+  <si>
+    <t>50,500,5000</t>
+  </si>
+  <si>
+    <t>10000,100000,1000000'</t>
   </si>
   <si>
     <t>金属性功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mq_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯木经</t>
+  </si>
+  <si>
+    <t>木属性功法</t>
+  </si>
+  <si>
+    <t>潮汐决</t>
+  </si>
+  <si>
+    <t>水属性功法</t>
+  </si>
+  <si>
+    <t>火神诀</t>
+  </si>
+  <si>
+    <t>火属性功法</t>
+  </si>
+  <si>
+    <t>厚土不灭经</t>
+  </si>
+  <si>
+    <t>土属性功法</t>
+  </si>
+  <si>
+    <t>zd_name</t>
+  </si>
+  <si>
+    <t>xd_name</t>
   </si>
   <si>
     <t>称号id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正道称号</t>
+  </si>
+  <si>
+    <t>邪道称号</t>
+  </si>
+  <si>
+    <t>等级所需名气</t>
   </si>
   <si>
     <t>称号对名气增长的附加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>称号描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初入江湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>江湖小虾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后起之秀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湖高手</t>
   </si>
   <si>
     <t>江湖名宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江湖高手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zd_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xd_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪道称号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正道称号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>降魔尊者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>混世魔王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盖世神皇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盖世魔君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圣者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圣贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圣魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不朽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不朽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>至尊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级所需名气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对修为的附加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mq_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对名气的附加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枯木经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,500,5000'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,500,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木属性功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潮汐决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,500,5000'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水属性功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,100000,1000000'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火神诀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'50,500,5000'</t>
-  </si>
-  <si>
-    <t>火属性功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土属性功法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚土不灭经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大乘期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡劫期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合体期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分神期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出窍期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元婴期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丹期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筑基期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胚光期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胎息期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凡人期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对每次修炼附加10修为</t>
-  </si>
-  <si>
-    <t>对每次修炼附加10修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第4重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第5重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第6重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第7重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第8重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第9重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第10重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_tips</t>
+  </si>
+  <si>
+    <t>小提示</t>
+  </si>
+  <si>
+    <t>道法的等级会随着境界而提升哦</t>
+  </si>
+  <si>
+    <t>修炼中不可以修习同属性功法哦</t>
+  </si>
+  <si>
+    <t>修习到同属性功法是因为你气运不足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必须五行圆满才可以升级到最高体质哦 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -519,26 +704,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -587,7 +1059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -622,7 +1094,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -797,64 +1269,60 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="48.875" customWidth="1"/>
+    <col min="5" max="5" width="48.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -865,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -882,13 +1350,13 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -899,13 +1367,13 @@
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -916,13 +1384,13 @@
         <v>5000</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -933,13 +1401,13 @@
         <v>50000</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -950,13 +1418,13 @@
         <v>500000</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -967,13 +1435,13 @@
         <v>5000000</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -984,13 +1452,13 @@
         <v>50000000</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1001,13 +1469,13 @@
         <v>500000000</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1018,13 +1486,13 @@
         <v>5000000000</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1035,74 +1503,75 @@
         <v>50000000000</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1114,12 +1583,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -1131,12 +1600,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -1148,12 +1617,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>20000</v>
@@ -1165,12 +1634,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>200000</v>
@@ -1182,12 +1651,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>2000000</v>
@@ -1199,12 +1668,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>20000000</v>
@@ -1216,12 +1685,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>200000000</v>
@@ -1233,12 +1702,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2000000000</v>
@@ -1250,12 +1719,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>20000000000</v>
@@ -1267,12 +1736,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>200000000000</v>
@@ -1285,75 +1754,76 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="15.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="26.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1362,18 +1832,18 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1382,88 +1852,89 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="8.87962962962963" customWidth="1"/>
+    <col min="4" max="4" width="17.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="18.1296296296296" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1471,22 +1942,22 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>88</v>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1495,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1518,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1540,22 +2011,22 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>88</v>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1563,87 +2034,81 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>88</v>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="12.8796296296296" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="64.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1652,15 +2117,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -1669,15 +2134,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -1686,15 +2151,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>50000</v>
@@ -1703,15 +2168,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>100000</v>
@@ -1720,15 +2185,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>180000</v>
@@ -1737,15 +2202,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>250000</v>
@@ -1754,15 +2219,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>400000</v>
@@ -1771,15 +2236,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>600000</v>
@@ -1788,15 +2253,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>900000</v>
@@ -1805,15 +2270,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <v>2000000</v>
@@ -1823,8 +2288,58 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="44.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/scscl/游戏数据excel/xls/data1.xlsx
+++ b/scscl/游戏数据excel/xls/data1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="5"/>
+    <workbookView windowWidth="22943" windowHeight="9924" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="data_body" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="data_xinfa" sheetId="4" r:id="rId4"/>
     <sheet name="data_fame" sheetId="5" r:id="rId5"/>
     <sheet name="data_tips" sheetId="6" r:id="rId6"/>
+    <sheet name="data_prop" sheetId="7" r:id="rId7"/>
+    <sheet name="data_monst" sheetId="8" r:id="rId8"/>
+    <sheet name="data_plot" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>level</t>
   </si>
@@ -96,66 +99,120 @@
     <t>id</t>
   </si>
   <si>
+    <t>jd_name</t>
+  </si>
+  <si>
+    <t>cm_name</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>xw_add</t>
+  </si>
+  <si>
+    <t>mq_add</t>
+  </si>
+  <si>
+    <t>lf_add</t>
+  </si>
+  <si>
+    <t>唯一id</t>
+  </si>
+  <si>
+    <t>金丹修真</t>
+  </si>
+  <si>
+    <t>普通修真</t>
+  </si>
+  <si>
+    <t>升级需要经验</t>
+  </si>
+  <si>
+    <t>对修为的附加</t>
+  </si>
+  <si>
+    <t>对名气的附加</t>
+  </si>
+  <si>
+    <t>增加寿命</t>
+  </si>
+  <si>
+    <t>凡人期</t>
+  </si>
+  <si>
+    <t>一元</t>
+  </si>
+  <si>
+    <t>胎息期</t>
+  </si>
+  <si>
+    <t>两仪</t>
+  </si>
+  <si>
+    <t>融合期</t>
+  </si>
+  <si>
+    <t>三才</t>
+  </si>
+  <si>
+    <t>筑基期</t>
+  </si>
+  <si>
+    <t>四象</t>
+  </si>
+  <si>
+    <t>结丹期</t>
+  </si>
+  <si>
+    <t>五行</t>
+  </si>
+  <si>
+    <t>元婴期</t>
+  </si>
+  <si>
+    <t>六合</t>
+  </si>
+  <si>
+    <t>出窍期</t>
+  </si>
+  <si>
+    <t>七星</t>
+  </si>
+  <si>
+    <t>分神期</t>
+  </si>
+  <si>
+    <t>八卦</t>
+  </si>
+  <si>
+    <t>合体期</t>
+  </si>
+  <si>
+    <t>九宫</t>
+  </si>
+  <si>
+    <t>渡劫期</t>
+  </si>
+  <si>
+    <t>十天干</t>
+  </si>
+  <si>
+    <t>飞升期</t>
+  </si>
+  <si>
+    <t>200000000000</t>
+  </si>
+  <si>
+    <t>十二地支</t>
+  </si>
+  <si>
+    <t>2000000000000</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>xw_add</t>
-  </si>
-  <si>
-    <t>mq_add</t>
-  </si>
-  <si>
-    <t>唯一id</t>
-  </si>
-  <si>
-    <t>境界名称</t>
-  </si>
-  <si>
-    <t>升级需要经验</t>
-  </si>
-  <si>
-    <t>对修为的附加</t>
-  </si>
-  <si>
-    <t>对名气的附加</t>
-  </si>
-  <si>
-    <t>凡人期</t>
-  </si>
-  <si>
-    <t>胎息期</t>
-  </si>
-  <si>
-    <t>胚光期</t>
-  </si>
-  <si>
-    <t>筑基期</t>
-  </si>
-  <si>
-    <t>金丹期</t>
-  </si>
-  <si>
-    <t>元婴期</t>
-  </si>
-  <si>
-    <t>出窍期</t>
-  </si>
-  <si>
-    <t>分神期</t>
-  </si>
-  <si>
-    <t>合体期</t>
-  </si>
-  <si>
-    <t>渡劫期</t>
-  </si>
-  <si>
-    <t>大乘期</t>
-  </si>
-  <si>
     <t>bzd</t>
   </si>
   <si>
@@ -189,13 +246,16 @@
     <t>5,10,15,20,25,30</t>
   </si>
   <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>bmul</t>
-  </si>
-  <si>
-    <t>xw_need</t>
+    <t>image</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>xltype</t>
+  </si>
+  <si>
+    <t>addition</t>
   </si>
   <si>
     <t>心法id</t>
@@ -204,16 +264,19 @@
     <t>心法名称</t>
   </si>
   <si>
-    <t>心法属性</t>
-  </si>
-  <si>
-    <t>对修为增加是否倍数</t>
-  </si>
-  <si>
-    <t>对修为增加数据</t>
-  </si>
-  <si>
-    <t>升级所需修为</t>
+    <t>心法图片</t>
+  </si>
+  <si>
+    <t>存储类型(属于心法2)</t>
+  </si>
+  <si>
+    <t>修炼类型</t>
+  </si>
+  <si>
+    <t>心法等级</t>
+  </si>
+  <si>
+    <t>附加信息</t>
   </si>
   <si>
     <t>心法描述</t>
@@ -222,37 +285,52 @@
     <t>金刚经</t>
   </si>
   <si>
-    <t>50,500,5000</t>
-  </si>
-  <si>
-    <t>10000,100000,1000000'</t>
-  </si>
-  <si>
-    <t>金属性功法</t>
+    <t>xf_icon/xf_1.png</t>
+  </si>
+  <si>
+    <t>黄级功法</t>
   </si>
   <si>
     <t>枯木经</t>
   </si>
   <si>
-    <t>木属性功法</t>
+    <t>xf_icon/xf_2.png</t>
+  </si>
+  <si>
+    <t>玄级功法</t>
   </si>
   <si>
     <t>潮汐决</t>
   </si>
   <si>
-    <t>水属性功法</t>
+    <t>xf_icon/xf_3.png</t>
   </si>
   <si>
     <t>火神诀</t>
   </si>
   <si>
-    <t>火属性功法</t>
+    <t>xf_icon/xf_4.png</t>
+  </si>
+  <si>
+    <t>地级功法</t>
   </si>
   <si>
     <t>厚土不灭经</t>
   </si>
   <si>
-    <t>土属性功法</t>
+    <t>xf_icon/xf_5.png</t>
+  </si>
+  <si>
+    <t>金丹录</t>
+  </si>
+  <si>
+    <t>xf_icon/xf_6.png</t>
+  </si>
+  <si>
+    <t>天级功法</t>
+  </si>
+  <si>
+    <t>这是一种独特的修真法门,就是在体内修成金丹从而达到飞升成仙,虽然与别的修真方法大相径庭,但是却殊途同归.</t>
   </si>
   <si>
     <t>zd_name</t>
@@ -337,6 +415,111 @@
   </si>
   <si>
     <t xml:space="preserve">必须五行圆满才可以升级到最高体质哦 </t>
+  </si>
+  <si>
+    <t>道具id</t>
+  </si>
+  <si>
+    <t>道具名称</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>存储类型</t>
+  </si>
+  <si>
+    <t>附加描述</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>火莲子</t>
+  </si>
+  <si>
+    <t>fabao/fb (1).png</t>
+  </si>
+  <si>
+    <t>疗伤药材</t>
+  </si>
+  <si>
+    <t>雪蛛角</t>
+  </si>
+  <si>
+    <t>fabao/fb (57).png</t>
+  </si>
+  <si>
+    <t>炼器材料</t>
+  </si>
+  <si>
+    <t>融阳剑</t>
+  </si>
+  <si>
+    <t>fabao/fb (2).png</t>
+  </si>
+  <si>
+    <t>武器类</t>
+  </si>
+  <si>
+    <t>六欲天轮</t>
+  </si>
+  <si>
+    <t>fabao/fb (3).png</t>
+  </si>
+  <si>
+    <t>天罡战甲</t>
+  </si>
+  <si>
+    <t>fabao/fb (4).png</t>
+  </si>
+  <si>
+    <t>护甲类</t>
+  </si>
+  <si>
+    <t>修真界上品战甲,胸部镶嵌有七颗黑缕晶石,能自动吸收灵气补充能量形成的防护.</t>
+  </si>
+  <si>
+    <t>蓝影丹</t>
+  </si>
+  <si>
+    <t>fabao/fb (5).png</t>
+  </si>
+  <si>
+    <t>丹药类</t>
+  </si>
+  <si>
+    <t>初步修习金丹录必备丹药,服用后步入金丹修行之路,在丹田形成第一颗金丹,一元金丹.</t>
+  </si>
+  <si>
+    <t>兽类id</t>
+  </si>
+  <si>
+    <t>兽类名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>雪蛛</t>
+  </si>
+  <si>
+    <t>刺炎蟾蜍</t>
+  </si>
+  <si>
+    <t>麒麟</t>
+  </si>
+  <si>
+    <t>麒麟,百兽之王,乃品性仁慈、妖力强大生物，谙悟世理,通晓天意,可以聆听天命。与凤、龟、龙共称为"四灵",并居四灵之首位。</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>剧情id</t>
+  </si>
+  <si>
+    <t>欢迎来到川临大陆,</t>
   </si>
 </sst>
 </file>
@@ -346,8 +529,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -359,14 +542,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,8 +578,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,22 +594,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -419,7 +603,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,39 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +650,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,7 +672,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,187 +694,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,11 +888,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,71 +977,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,10 +991,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,140 +1003,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1519,20 +1700,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="14.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1548,33 +1731,45 @@
       <c r="E1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1582,175 +1777,261 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
+      <c r="G4">
         <v>200</v>
       </c>
-      <c r="D4">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>200000</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>2000000</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>20000000</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>200000000</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>2000000000</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>20000</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>200000</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <v>2000000</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>20000000</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>200000000</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11">
-        <v>2000000000</v>
-      </c>
-      <c r="D11">
-        <v>400</v>
-      </c>
-      <c r="E11">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>9</v>
-      </c>
       <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
         <v>20000000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>800</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>200000000000</v>
-      </c>
-      <c r="D13">
-        <v>10000</v>
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
         <v>512</v>
+      </c>
+      <c r="G13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>1200</v>
+      </c>
+      <c r="F14">
+        <v>1024</v>
+      </c>
+      <c r="G14">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -1783,39 +2064,39 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1823,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1832,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1843,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1852,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1867,181 +2148,226 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="8.87962962962963" customWidth="1"/>
-    <col min="4" max="4" width="17.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="18.1296296296296" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="66" customWidth="1"/>
+    <col min="3" max="4" width="21.5555555555556" customWidth="1"/>
+    <col min="5" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="109.444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>68</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2383,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2071,44 +2397,44 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -2119,13 +2445,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -2136,13 +2462,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -2153,13 +2479,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>50000</v>
@@ -2170,13 +2496,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>100000</v>
@@ -2187,13 +2513,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>180000</v>
@@ -2204,13 +2530,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>250000</v>
@@ -2221,13 +2547,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>400000</v>
@@ -2238,13 +2564,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>600000</v>
@@ -2255,13 +2581,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D12">
         <v>900000</v>
@@ -2272,13 +2598,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D13">
         <v>2000000</v>
@@ -2299,7 +2625,7 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2310,32 +2636,334 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="5" width="18.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="111.222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="111.555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="162.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
